--- a/src/main/resources/template/人员信息.xlsx
+++ b/src/main/resources/template/人员信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuzhaoxing/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wechat_bak\WeChat Files\wxid_ojckc2j3tb2222\FileStorage\File\2022-09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C3B9FA-0460-B94B-BAA5-AF0E2E11F723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACCB80E-AF2F-41DE-8F0B-CC2BF8C3DA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32840" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8884" yWindow="2969" windowWidth="16936" windowHeight="14012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +48,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -406,16 +407,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.83203125"/>
+    <col min="3" max="3" width="12.796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,15 +427,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>11</formula1>
-      <formula2>11</formula2>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{0DB76D9A-FE2F-3145-9D47-377A72E3DD9F}">
+      <formula1>AND(ISNUMBER(C1)=TRUE,COUNTIF(C:C,C1)=1,LEN(C1)=11)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -448,7 +448,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -462,7 +462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
